--- a/similarities/split_global/harmonic_similarity_timestamps_242.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_242.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>isophonics_128</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D', 'D:min', 'A'], ['A', 'D', 'A']]</t>
+          <t>['C', 'F/5', 'C']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:min', 'C:maj'], ['C:maj', 'F/5', 'C:maj']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:22.703877', '0:00:30.830861'), ('0:00:33.698526', '0:00:42.916848')]</t>
+          <t>('0:00:05.121000', '0:00:12.601000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:46.097000', '0:00:54.196000'), ('0:00:10.619000', '0:00:16.742000')]</t>
+          <t>('0:00:10.634761', '0:00:15.986961')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=22.703877', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=33.698526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=46.097', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:7', 'C:min', 'F:min', 'C:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:01:30.128000', '0:01:39.300000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:04.824512')]</t>
+          <t>('0:00:23.420000', '0:00:33.960000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=90.128</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=23.42</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:56.690000', '0:02:02.570000')]</t>
+          <t>('0:00:01.540000', '0:00:06.880000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:06.726778', '0:00:13.147096')]</t>
+          <t>('0:00:46.520000', '0:00:48.940000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=1.54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=6.726778']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G/5', 'C/9', 'G']]</t>
+          <t>['C', 'G/3', 'C']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G/3']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.727609', '0:00:08.204625')]</t>
+          <t>('0:00:41.655000', '0:00:46.220000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:05.146000', '0:00:09.474000')]</t>
+          <t>('0:00:40.960000', '0:00:43.300000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=41.655</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=40.96</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>isophonics_70</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>isophonics_170</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D:min', 'G', 'C']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['E:min', 'A', 'D']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:22.400000')]</t>
+          <t>('0:01:20.956000', '0:01:25.176000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:02:24.085784', '0:02:29.240614')]</t>
+          <t>('0:00:47.993000', '0:00:52.587959')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-70#t=80.956</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=144.085784']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-170#t=47.993</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>jaah_54</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7', 'F']]</t>
+          <t>['Bb:7', 'Eb', 'Ab:7', 'Eb']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['C:7', 'F', 'Bb:7', 'F']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:10.130000', '0:00:14.450000')]</t>
+          <t>('0:00:40.370000', '0:00:56.680000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:55.640000', '0:01:02.520000')]</t>
+          <t>('0:00:09.180000', '0:00:15.540000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=10.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=40.37</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=55.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=9.18</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:min', 'F', 'C']]</t>
+          <t>['C:7', 'F:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
+          <t>['G:7', 'C:maj', 'C:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:03.560725', '0:00:10.073922')]</t>
+          <t>('0:01:03.580000', '0:01:06.360000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:19.720000', '0:01:24.580000')]</t>
+          <t>('0:00:29.340000', '0:00:39.820000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=3.560725']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.58</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=79.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=29.34</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>isophonics_46</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:dim7'], ['G:7', 'C', 'Eb:dim7'], ['C', 'G:7', 'C']]</t>
+          <t>['F:maj', 'G', 'C:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'E:dim7'], ['F:7', 'Bb', 'G:dim7'], ['Bb', 'F:7', 'Bb']]</t>
+          <t>['G', 'A', 'D']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:37.410000', '0:01:39.720000'), ('0:00:09.730000', '0:00:13.170000'), ('0:00:21.170000', '0:00:25.690000')]</t>
+          <t>('0:00:32.808000', '0:00:36.091000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:14.680000', '0:00:16.340000'), ('0:00:21.230000', '0:00:22.850000'), ('0:00:07.590000', '0:00:14.680000')]</t>
+          <t>('0:00:14.711383', '0:00:18.983854')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=97.41', 'https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=9.73', 'https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=21.17']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=32.808</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=14.68', 'https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=21.23', 'https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=14.711383</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F', 'C']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:14.879000', '0:01:27.795000')]</t>
+          <t>('0:00:40.380000', '0:00:42.280000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:15.124263', '0:00:21.811609')]</t>
+          <t>('0:00:26.960000', '0:00:33.500000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.38</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=26.96</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:06.536000', '0:00:11.853000')]</t>
+          <t>('0:00:22.770000', '0:00:31.750000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:02.560000', '0:00:21.440000')]</t>
+          <t>('0:00:01.600000', '0:00:11.860000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=6.536']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=2.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>schubert-winterreise_105</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'A']]</t>
+          <t>['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:55.860352', '0:01:03.046928')]</t>
+          <t>('0:00:39.560000', '0:00:57.900000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:55.580000', '0:01:06.200000')]</t>
+          <t>('0:00:00.240000', '0:00:07.820000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=55.860352']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=39.56</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=0.24</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>schubert-winterreise_164</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_62</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['F:7', 'A#:maj/F', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:21.780000', '0:00:31.740000')]</t>
+          <t>('0:01:49.440000', '0:02:03.140000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:10.060000', '0:01:27.320000')]</t>
+          <t>('0:01:30.140000', '0:01:38.780000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=109.44</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=70.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=90.14</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>isophonics_149</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['F#', 'E', 'B']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['Eb:maj', 'Db:maj', 'Ab:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:42.440000', '0:00:44.360000')]</t>
+          <t>('0:00:59.041587', '0:01:06.994421')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
+          <t>('0:00:45.887000', '0:00:51.649000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=59.041587</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=45.887</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>schubert-winterreise_152</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:7', 'A']]</t>
+          <t>['E:7', 'A:min', 'G#:dim7', 'A:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb']]</t>
+          <t>['G:7', 'C:min', 'B:dim7/C', 'C:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:22.622607', '0:00:29.751133')]</t>
+          <t>('0:00:19.360000', '0:00:25.140000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:04.830000', '0:00:07.280000')]</t>
+          <t>('0:01:25.240000', '0:01:37.020000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-92#t=22.622607']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=19.36</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=4.83']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=85.24</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_57</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:57.920000', '0:01:00.680000')]</t>
+          <t>('0:00:12.510000', '0:00:13.910000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
+          <t>('0:01:14.400000', '0:01:26.060000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=57.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-57#t=23.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
